--- a/VideoPatterns.xlsx
+++ b/VideoPatterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamis\Masters\psy555\myData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F76FFD-E5BA-4267-8B02-107D8197A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE986D1-AA90-45C1-9FC0-1CC54C6B061D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43FEFE65-E9AE-4446-88C0-BFCC70CE7945}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="25155" windowHeight="11385" xr2:uid="{43FEFE65-E9AE-4446-88C0-BFCC70CE7945}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
